--- a/info/RtO_proportion_stained_bins.xlsx
+++ b/info/RtO_proportion_stained_bins.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CitSci\pathology\RtO\rto_image_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CitSci\pathology\RtO\rto_image_analysis\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
   <si>
     <t>Protein</t>
   </si>
@@ -47,57 +47,15 @@
     <t>Bin 6</t>
   </si>
   <si>
-    <t>MRE11</t>
-  </si>
-  <si>
     <t>p53</t>
   </si>
   <si>
     <t>p21</t>
   </si>
   <si>
-    <t>TIP60</t>
-  </si>
-  <si>
-    <t>RAD50</t>
-  </si>
-  <si>
-    <t>53BP1</t>
-  </si>
-  <si>
-    <t>CtIP</t>
-  </si>
-  <si>
-    <t>HDAC2</t>
-  </si>
-  <si>
-    <t>NBS1</t>
-  </si>
-  <si>
-    <t>RPA</t>
-  </si>
-  <si>
-    <t>HDAC4</t>
-  </si>
-  <si>
-    <t>MRE11 c-term</t>
-  </si>
-  <si>
     <t>ki67</t>
   </si>
   <si>
-    <t>dCK</t>
-  </si>
-  <si>
-    <t>MDM2</t>
-  </si>
-  <si>
-    <t>CK5/6</t>
-  </si>
-  <si>
-    <t>CK20</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -150,6 +108,54 @@
   </si>
   <si>
     <t>Bins should have been like p53 but not done in time</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>mre11</t>
+  </si>
+  <si>
+    <t>tip60</t>
+  </si>
+  <si>
+    <t>rad50</t>
+  </si>
+  <si>
+    <t>53bp1</t>
+  </si>
+  <si>
+    <t>ctip</t>
+  </si>
+  <si>
+    <t>hdac2</t>
+  </si>
+  <si>
+    <t>nbs1</t>
+  </si>
+  <si>
+    <t>rpa</t>
+  </si>
+  <si>
+    <t>hdac4</t>
+  </si>
+  <si>
+    <t>mre11c</t>
+  </si>
+  <si>
+    <t>dck</t>
+  </si>
+  <si>
+    <t>mdm2</t>
+  </si>
+  <si>
+    <t>ck5</t>
+  </si>
+  <si>
+    <t>ck20</t>
+  </si>
+  <si>
+    <t>mre11n</t>
   </si>
 </sst>
 </file>
@@ -831,571 +837,664 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="1" max="3" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/info/RtO_proportion_stained_bins.xlsx
+++ b/info/RtO_proportion_stained_bins.xlsx
@@ -122,9 +122,6 @@
     <t>rad50</t>
   </si>
   <si>
-    <t>53bp1</t>
-  </si>
-  <si>
     <t>ctip</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>mre11n</t>
+  </si>
+  <si>
+    <t>53bpi</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
